--- a/src/main/resources/file/Форма_семестрового_контроля.xlsx
+++ b/src/main/resources/file/Форма_семестрового_контроля.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingDivisionTools\src\res\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingDivisionTools\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,22 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Е</t>
+    <t>Номер ведомости</t>
   </si>
   <si>
-    <t>ДЗ</t>
-  </si>
-  <si>
-    <t>Форма контролю</t>
+    <t>Дата ведомости</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,20 +189,8 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,14 +370,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -507,28 +486,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -571,25 +530,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -626,7 +571,6 @@
     <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Форма_семестрового_контроля" xfId="42"/>
     <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -634,108 +578,7 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="0"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -746,16 +589,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ФормаКонтроля" displayName="ФормаКонтроля" ref="A1:A1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1" headerRowCellStyle="Обычный_Форма_семестрового_контроля">
-  <autoFilter ref="A1:A1048576"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Форма контролю" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,42 +854,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EX3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:EX1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.85546875" style="4" customWidth="1"/>
-    <col min="2" max="154" width="23" style="5"/>
-    <col min="155" max="16384" width="23" style="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:EX1048576"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>